--- a/va_facility_data_2025-02-20/Silver City VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Silver%20City%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Silver City VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Silver%20City%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc7e5a7f90a3848c2a3d0016637cd1305"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf5c4e97c721c4b49b39a54eae7354756"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5d5e4c20f24e4040bc3b0edca1780df5"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R5cf5e98ed0e5487588982fd301b54135"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8cd45e8e52004be6b91c6818fe979fb6"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6ee9f90854b34c778fa4d3d6284d0731"/>
   </x:sheets>
 </x:workbook>
 </file>
